--- a/biology/Botanique/Liste_des_plantes_sauvages_de_la_Belgique/Liste_des_plantes_sauvages_de_la_Belgique.xlsx
+++ b/biology/Botanique/Liste_des_plantes_sauvages_de_la_Belgique/Liste_des_plantes_sauvages_de_la_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste de plantes recense les plantes sauvages présentes en Belgique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste de plantes recense les plantes sauvages présentes en Belgique.
 On désigne ici par "plantes sauvages" toutes les plantes qui ne sont pas délibérément cultivées par l’homme, c’est-à-dire semées ou plantées. Les plantes que l’on trouve de mémoire d’homme dans un site donné sont qualifiées d’indigènes. Les plantes non indigènes que l’homme a délibérément importées d’ailleurs pour culture, et qui se sont ensuite maintenues après avoir su s’implanter ailleurs, sont appelées plantes subspontanées.
 D’autres plantes encore sont introduites involontairement, par exemple par des semences piégées dans du terreau, dans de la laine ou dans les semences de blé. Si ces semences germent et se développent sans toutefois que la plante ne se reproduise durablement et se maintienne, on appelle les plantes correspondantes adventices ou accidentelles.
-Si des plantes accidentelles ou des plantes subspontanées sont parvenues à se maintenir trois générations ou plus, on les qualifie de naturalisées. Parmi les plantes naturalisées, on fera la distinction entre celles présentes avant une certaine date, que l’on désignera par archéonaturalisées, et celles qui se sont naturalisées ultérieurement à cette date, les néonaturalisées. La date utilisée ici pour faire cette distinction est l’année 1500. La distinction entre plantes archéonaturalisées et néonaturalisées est également appliquée aux plantes non indigènes qui se sont introduites sans intervention humaine, par exemple par suite d’un changement climatique[2].
+Si des plantes accidentelles ou des plantes subspontanées sont parvenues à se maintenir trois générations ou plus, on les qualifie de naturalisées. Parmi les plantes naturalisées, on fera la distinction entre celles présentes avant une certaine date, que l’on désignera par archéonaturalisées, et celles qui se sont naturalisées ultérieurement à cette date, les néonaturalisées. La date utilisée ici pour faire cette distinction est l’année 1500. La distinction entre plantes archéonaturalisées et néonaturalisées est également appliquée aux plantes non indigènes qui se sont introduites sans intervention humaine, par exemple par suite d’un changement climatique.
 Dans cette liste, le statut de chaque taxon est indiqué de façon indépendante pour la Flandre et pour la Wallonie. En l’absence de cette précision, le statut vaut pour les deux régions. Le nom binominal est composé du nom générique (genre, avec une lettre capitale) suivi de l’espèce (en italique). En plus du nom binominal, peut éventuellement être indiqué le nom de la sous-espèce ou de la variété (en italique également), après l’abréviation « subsp. » ou « var. ».
 Sommaire :
 Haut – A
@@ -542,7 +554,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -574,7 +588,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -606,7 +622,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -638,7 +656,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -670,7 +690,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -702,7 +724,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -734,7 +758,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -766,7 +792,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -798,7 +826,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -830,7 +860,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -862,7 +894,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -894,7 +928,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -926,7 +962,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -958,7 +996,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -990,7 +1030,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1022,7 +1064,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1054,7 +1098,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1086,7 +1132,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1118,7 +1166,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1150,7 +1200,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1182,7 +1234,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1214,7 +1268,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1246,7 +1302,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1278,7 +1336,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
@@ -1310,7 +1370,9 @@
           <t>Sans nom vernaculaire Français</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A B C D E F G H I J K L M N O P Q R S T U V W Z Sans nom vernaculaire Français
